--- a/biology/Médecine/1345_en_santé_et_médecine/1345_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1345_en_santé_et_médecine/1345_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1345_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1345_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1345 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1345_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1345_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À Lille, en Flandre, Gilles de Grimaretz, dit Lotart Canart, et sa femme, Marie de Pont Rohart, fondent un asile consacré à Notre-Dame et le confient à des dominicains pour y loger et nourrir treize pauvres passants que Marie fera remplacer, en 1376, par des malades et des femmes en couches[1].
-À Anvers, dans le comté de Flandre, l'association laïque des alexiens, ou frères « cellites », voués à l'origine au soin d'enterrer les morts (cella veut dire « tombeau » en latin), est érigée en ordre religieux[2].
-À Carpentras, capitale du Comtat Venaissin, un hôtel-Dieu est édifié intra muros, près de la porte Notre-Dame[3].
-Le titre de « Premier barbier » du roi – Philippe VI de Valois en l'occurrence – est mentionné pour la première fois[4].
-1345-1356 : fl. Gratien, médecin de la marquise de Montferrat, soigne Jean, frère du comte de Savoie Amédée VI, puis la comtesse  Bonne[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À Lille, en Flandre, Gilles de Grimaretz, dit Lotart Canart, et sa femme, Marie de Pont Rohart, fondent un asile consacré à Notre-Dame et le confient à des dominicains pour y loger et nourrir treize pauvres passants que Marie fera remplacer, en 1376, par des malades et des femmes en couches.
+À Anvers, dans le comté de Flandre, l'association laïque des alexiens, ou frères « cellites », voués à l'origine au soin d'enterrer les morts (cella veut dire « tombeau » en latin), est érigée en ordre religieux.
+À Carpentras, capitale du Comtat Venaissin, un hôtel-Dieu est édifié intra muros, près de la porte Notre-Dame.
+Le titre de « Premier barbier » du roi – Philippe VI de Valois en l'occurrence – est mentionné pour la première fois.
+1345-1356 : fl. Gratien, médecin de la marquise de Montferrat, soigne Jean, frère du comte de Savoie Amédée VI, puis la comtesse  Bonne.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1345_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1345_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Guy de Vigevano dédie son Anatomie au roi Philippe VI[6].
-Le médecin chinois Wei Yilin (ca 1277-1347) rédige le Shi yi de xiao fang (« Formules efficaces et éprouvées par les médecins depuis des générations »), recueil de prescriptions concernant « les maladies infantiles, la médecine interne, l'ophtalmologie, les maladies ORL, la stomatologie, les blessures de guerre, les ulcères et les furoncles[7] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Guy de Vigevano dédie son Anatomie au roi Philippe VI.
+Le médecin chinois Wei Yilin (ca 1277-1347) rédige le Shi yi de xiao fang (« Formules efficaces et éprouvées par les médecins depuis des générations »), recueil de prescriptions concernant « les maladies infantiles, la médecine interne, l'ophtalmologie, les maladies ORL, la stomatologie, les blessures de guerre, les ulcères et les furoncles ».</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1345_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1345_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1345-1346 : Ugolino da Montecatini (mort en 1425), médecin italien, professeur à Florence, praticien à Pesaro, Lucques et Pérouse, auteur du Tractatus de balneis (1419-1420), important traité d'hydrothérapie thermale[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1345-1346 : Ugolino da Montecatini (mort en 1425), médecin italien, professeur à Florence, praticien à Pesaro, Lucques et Pérouse, auteur du Tractatus de balneis (1419-1420), important traité d'hydrothérapie thermale.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1345_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1345_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1344-1345[9] (?)  : al-Jaghmini (en) (né à une date inconnue), médecin persan, auteur du Petit Canon de la médecine (Qānūncha), épitomé du Canon d'Avicenne.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1344-1345 (?)  : al-Jaghmini (en) (né à une date inconnue), médecin persan, auteur du Petit Canon de la médecine (Qānūncha), épitomé du Canon d'Avicenne.</t>
         </is>
       </c>
     </row>
